--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb2-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb2-Epha3.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.519606</v>
+        <v>29.41996</v>
       </c>
       <c r="H2">
-        <v>124.558818</v>
+        <v>88.25988000000001</v>
       </c>
       <c r="I2">
-        <v>0.7305114279806179</v>
+        <v>0.6207199949605289</v>
       </c>
       <c r="J2">
-        <v>0.7630546295388221</v>
+        <v>0.66829493802317</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.030493</v>
+        <v>0.107177</v>
       </c>
       <c r="N2">
-        <v>0.09147899999999999</v>
+        <v>0.321531</v>
       </c>
       <c r="O2">
-        <v>0.001018637778668347</v>
+        <v>0.003526763356587491</v>
       </c>
       <c r="P2">
-        <v>0.001021037349570579</v>
+        <v>0.003549676734010809</v>
       </c>
       <c r="Q2">
-        <v>1.266057345758</v>
+        <v>3.15314305292</v>
       </c>
       <c r="R2">
-        <v>11.394516111822</v>
+        <v>28.37828747628</v>
       </c>
       <c r="S2">
-        <v>0.0007441265382900186</v>
+        <v>0.002189132532927965</v>
       </c>
       <c r="T2">
-        <v>0.0007791072765218792</v>
+        <v>0.002372230992958042</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>41.519606</v>
+        <v>29.41996</v>
       </c>
       <c r="H3">
-        <v>124.558818</v>
+        <v>88.25988000000001</v>
       </c>
       <c r="I3">
-        <v>0.7305114279806179</v>
+        <v>0.6207199949605289</v>
       </c>
       <c r="J3">
-        <v>0.7630546295388221</v>
+        <v>0.66829493802317</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>88.95964599999999</v>
       </c>
       <c r="O3">
-        <v>0.990584245483253</v>
+        <v>0.9757678722356318</v>
       </c>
       <c r="P3">
-        <v>0.9929177316168408</v>
+        <v>0.9821074349659524</v>
       </c>
       <c r="Q3">
-        <v>1231.189817273158</v>
+        <v>872.3964089780534</v>
       </c>
       <c r="R3">
-        <v>11080.70835545843</v>
+        <v>7851.56768080248</v>
       </c>
       <c r="S3">
-        <v>0.723633111703074</v>
+        <v>0.6056786287367474</v>
       </c>
       <c r="T3">
-        <v>0.7576504718614161</v>
+        <v>0.6563374273826657</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>41.519606</v>
+        <v>29.41996</v>
       </c>
       <c r="H4">
-        <v>124.558818</v>
+        <v>88.25988000000001</v>
       </c>
       <c r="I4">
-        <v>0.7305114279806179</v>
+        <v>0.6207199949605289</v>
       </c>
       <c r="J4">
-        <v>0.7630546295388221</v>
+        <v>0.66829493802317</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.211054</v>
+        <v>0.04072766666666667</v>
       </c>
       <c r="N4">
-        <v>0.422108</v>
+        <v>0.122183</v>
       </c>
       <c r="O4">
-        <v>0.007050391163187266</v>
+        <v>0.001340183457265176</v>
       </c>
       <c r="P4">
-        <v>0.00471133302236074</v>
+        <v>0.001348890627627329</v>
       </c>
       <c r="Q4">
-        <v>8.762878924723999</v>
+        <v>1.198206324226667</v>
       </c>
       <c r="R4">
-        <v>52.577273548344</v>
+        <v>10.78385691804</v>
       </c>
       <c r="S4">
-        <v>0.00515039131644186</v>
+        <v>0.0008318786688398243</v>
       </c>
       <c r="T4">
-        <v>0.003595004474011493</v>
+        <v>0.0009014567783902405</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>41.519606</v>
+        <v>29.41996</v>
       </c>
       <c r="H5">
-        <v>124.558818</v>
+        <v>88.25988000000001</v>
       </c>
       <c r="I5">
-        <v>0.7305114279806179</v>
+        <v>0.6207199949605289</v>
       </c>
       <c r="J5">
-        <v>0.7630546295388221</v>
+        <v>0.66829493802317</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.04031433333333333</v>
+        <v>0.5885005</v>
       </c>
       <c r="N5">
-        <v>0.120943</v>
+        <v>1.177001</v>
       </c>
       <c r="O5">
-        <v>0.001346725574891351</v>
+        <v>0.01936518095051565</v>
       </c>
       <c r="P5">
-        <v>0.001349898011227873</v>
+        <v>0.01299399767240936</v>
       </c>
       <c r="Q5">
-        <v>1.673835236152666</v>
+        <v>17.31366116998</v>
       </c>
       <c r="R5">
-        <v>15.064517125374</v>
+        <v>103.88196701988</v>
       </c>
       <c r="S5">
-        <v>0.0009837984228118993</v>
+        <v>0.01202035502201381</v>
       </c>
       <c r="T5">
-        <v>0.001030045926872677</v>
+        <v>0.008683822869156031</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>21.551639</v>
       </c>
       <c r="I6">
-        <v>0.1263958572665066</v>
+        <v>0.1515698101047853</v>
       </c>
       <c r="J6">
-        <v>0.1320266053993819</v>
+        <v>0.1631868437822795</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.030493</v>
+        <v>0.107177</v>
       </c>
       <c r="N6">
-        <v>0.09147899999999999</v>
+        <v>0.321531</v>
       </c>
       <c r="O6">
-        <v>0.001018637778668347</v>
+        <v>0.003526763356587491</v>
       </c>
       <c r="P6">
-        <v>0.001021037349570579</v>
+        <v>0.003549676734010809</v>
       </c>
       <c r="Q6">
-        <v>0.2190580426756666</v>
+        <v>0.7699466710343335</v>
       </c>
       <c r="R6">
-        <v>1.971522384081</v>
+        <v>6.929520039309001</v>
       </c>
       <c r="S6">
-        <v>0.0001287515952788357</v>
+        <v>0.0005345508522424811</v>
       </c>
       <c r="T6">
-        <v>0.0001348040952497857</v>
+        <v>0.0005792605426706139</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>21.551639</v>
       </c>
       <c r="I7">
-        <v>0.1263958572665066</v>
+        <v>0.1515698101047853</v>
       </c>
       <c r="J7">
-        <v>0.1320266053993819</v>
+        <v>0.1631868437822795</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +874,10 @@
         <v>88.95964599999999</v>
       </c>
       <c r="O7">
-        <v>0.990584245483253</v>
+        <v>0.9757678722356318</v>
       </c>
       <c r="P7">
-        <v>0.9929177316168408</v>
+        <v>0.9821074349659524</v>
       </c>
       <c r="Q7">
         <v>213.0251306844216</v>
@@ -886,10 +886,10 @@
         <v>1917.226176159794</v>
       </c>
       <c r="S7">
-        <v>0.1252057449025514</v>
+        <v>0.1478969511011051</v>
       </c>
       <c r="T7">
-        <v>0.1310915575462261</v>
+        <v>0.1602670125672041</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>21.551639</v>
       </c>
       <c r="I8">
-        <v>0.1263958572665066</v>
+        <v>0.1515698101047853</v>
       </c>
       <c r="J8">
-        <v>0.1320266053993819</v>
+        <v>0.1631868437822795</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.211054</v>
+        <v>0.04072766666666667</v>
       </c>
       <c r="N8">
-        <v>0.422108</v>
+        <v>0.122183</v>
       </c>
       <c r="O8">
-        <v>0.007050391163187266</v>
+        <v>0.001340183457265176</v>
       </c>
       <c r="P8">
-        <v>0.00471133302236074</v>
+        <v>0.001348890627627329</v>
       </c>
       <c r="Q8">
-        <v>1.516186539168667</v>
+        <v>0.2925826564374445</v>
       </c>
       <c r="R8">
-        <v>9.097119235012</v>
+        <v>2.633243907937</v>
       </c>
       <c r="S8">
-        <v>0.0008911402351352573</v>
+        <v>0.0002031313521232574</v>
       </c>
       <c r="T8">
-        <v>0.0006220213058482989</v>
+        <v>0.0002201212041300018</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>21.551639</v>
       </c>
       <c r="I9">
-        <v>0.1263958572665066</v>
+        <v>0.1515698101047853</v>
       </c>
       <c r="J9">
-        <v>0.1320266053993819</v>
+        <v>0.1631868437822795</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.04031433333333333</v>
+        <v>0.5885005</v>
       </c>
       <c r="N9">
-        <v>0.120943</v>
+        <v>1.177001</v>
       </c>
       <c r="O9">
-        <v>0.001346725574891351</v>
+        <v>0.01936518095051565</v>
       </c>
       <c r="P9">
-        <v>0.001349898011227873</v>
+        <v>0.01299399767240936</v>
       </c>
       <c r="Q9">
-        <v>0.2896133195085556</v>
+        <v>4.227716775773167</v>
       </c>
       <c r="R9">
-        <v>2.606519875577</v>
+        <v>25.366300654639</v>
       </c>
       <c r="S9">
-        <v>0.0001702205335411213</v>
+        <v>0.002935176799314463</v>
       </c>
       <c r="T9">
-        <v>0.0001782224520577928</v>
+        <v>0.00212044946827477</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.229894</v>
+        <v>0.3873096666666667</v>
       </c>
       <c r="H10">
-        <v>0.6896819999999999</v>
+        <v>1.161929</v>
       </c>
       <c r="I10">
-        <v>0.004044840748830231</v>
+        <v>0.008171692087327698</v>
       </c>
       <c r="J10">
-        <v>0.004225032410066655</v>
+        <v>0.008798009571759262</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.030493</v>
+        <v>0.107177</v>
       </c>
       <c r="N10">
-        <v>0.09147899999999999</v>
+        <v>0.321531</v>
       </c>
       <c r="O10">
-        <v>0.001018637778668347</v>
+        <v>0.003526763356587491</v>
       </c>
       <c r="P10">
-        <v>0.001021037349570579</v>
+        <v>0.003549676734010809</v>
       </c>
       <c r="Q10">
-        <v>0.007010157741999997</v>
+        <v>0.04151068814433333</v>
       </c>
       <c r="R10">
-        <v>0.06309141967799999</v>
+        <v>0.373596193299</v>
       </c>
       <c r="S10">
-        <v>4.120227595455639E-06</v>
+        <v>2.881962421490327E-05</v>
       </c>
       <c r="T10">
-        <v>4.313915893824255E-06</v>
+        <v>3.123008988247825E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.229894</v>
+        <v>0.3873096666666667</v>
       </c>
       <c r="H11">
-        <v>0.6896819999999999</v>
+        <v>1.161929</v>
       </c>
       <c r="I11">
-        <v>0.004044840748830231</v>
+        <v>0.008171692087327698</v>
       </c>
       <c r="J11">
-        <v>0.004225032410066655</v>
+        <v>0.008798009571759262</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>88.95964599999999</v>
       </c>
       <c r="O11">
-        <v>0.990584245483253</v>
+        <v>0.9757678722356318</v>
       </c>
       <c r="P11">
-        <v>0.9929177316168408</v>
+        <v>0.9821074349659524</v>
       </c>
       <c r="Q11">
-        <v>6.817096285841332</v>
+        <v>11.48497694634822</v>
       </c>
       <c r="R11">
-        <v>61.35386657257199</v>
+        <v>103.364792517134</v>
       </c>
       <c r="S11">
-        <v>0.00400675552127991</v>
+        <v>0.007973674600616498</v>
       </c>
       <c r="T11">
-        <v>0.004195109596611017</v>
+        <v>0.008640590613326386</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.229894</v>
+        <v>0.3873096666666667</v>
       </c>
       <c r="H12">
-        <v>0.6896819999999999</v>
+        <v>1.161929</v>
       </c>
       <c r="I12">
-        <v>0.004044840748830231</v>
+        <v>0.008171692087327698</v>
       </c>
       <c r="J12">
-        <v>0.004225032410066655</v>
+        <v>0.008798009571759262</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.211054</v>
+        <v>0.04072766666666667</v>
       </c>
       <c r="N12">
-        <v>0.422108</v>
+        <v>0.122183</v>
       </c>
       <c r="O12">
-        <v>0.007050391163187266</v>
+        <v>0.001340183457265176</v>
       </c>
       <c r="P12">
-        <v>0.00471133302236074</v>
+        <v>0.001348890627627329</v>
       </c>
       <c r="Q12">
-        <v>0.04852004827599999</v>
+        <v>0.01577421900077778</v>
       </c>
       <c r="R12">
-        <v>0.291120289656</v>
+        <v>0.141967971007</v>
       </c>
       <c r="S12">
-        <v>2.851770947205242E-05</v>
+        <v>1.095156655330132E-05</v>
       </c>
       <c r="T12">
-        <v>1.990553471409141E-05</v>
+        <v>1.18675526531216E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.229894</v>
+        <v>0.3873096666666667</v>
       </c>
       <c r="H13">
-        <v>0.6896819999999999</v>
+        <v>1.161929</v>
       </c>
       <c r="I13">
-        <v>0.004044840748830231</v>
+        <v>0.008171692087327698</v>
       </c>
       <c r="J13">
-        <v>0.004225032410066655</v>
+        <v>0.008798009571759262</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.04031433333333333</v>
+        <v>0.5885005</v>
       </c>
       <c r="N13">
-        <v>0.120943</v>
+        <v>1.177001</v>
       </c>
       <c r="O13">
-        <v>0.001346725574891351</v>
+        <v>0.01936518095051565</v>
       </c>
       <c r="P13">
-        <v>0.001349898011227873</v>
+        <v>0.01299399767240936</v>
       </c>
       <c r="Q13">
-        <v>0.009268023347333332</v>
+        <v>0.2279319324881666</v>
       </c>
       <c r="R13">
-        <v>0.08341221012599999</v>
+        <v>1.367591594929</v>
       </c>
       <c r="S13">
-        <v>5.447290482812354E-06</v>
+        <v>0.0001582462959429979</v>
       </c>
       <c r="T13">
-        <v>5.703362847722285E-06</v>
+        <v>0.0001143213158972752</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.2719705</v>
+        <v>10.122265</v>
       </c>
       <c r="H14">
-        <v>14.543941</v>
+        <v>20.24453</v>
       </c>
       <c r="I14">
-        <v>0.1279457602316344</v>
+        <v>0.2135656295858028</v>
       </c>
       <c r="J14">
-        <v>0.08909703616318426</v>
+        <v>0.153289545846405</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.030493</v>
+        <v>0.107177</v>
       </c>
       <c r="N14">
-        <v>0.09147899999999999</v>
+        <v>0.321531</v>
       </c>
       <c r="O14">
-        <v>0.001018637778668347</v>
+        <v>0.003526763356587491</v>
       </c>
       <c r="P14">
-        <v>0.001021037349570579</v>
+        <v>0.003549676734010809</v>
       </c>
       <c r="Q14">
-        <v>0.2217441964565</v>
+        <v>1.084873995905</v>
       </c>
       <c r="R14">
-        <v>1.330465178739</v>
+        <v>6.50924397543</v>
       </c>
       <c r="S14">
-        <v>0.0001303303849923849</v>
+        <v>0.0007531954366497468</v>
       </c>
       <c r="T14">
-        <v>9.097140165865171E-05</v>
+        <v>0.000544128334458067</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.2719705</v>
+        <v>10.122265</v>
       </c>
       <c r="H15">
-        <v>14.543941</v>
+        <v>20.24453</v>
       </c>
       <c r="I15">
-        <v>0.1279457602316344</v>
+        <v>0.2135656295858028</v>
       </c>
       <c r="J15">
-        <v>0.08909703616318426</v>
+        <v>0.153289545846405</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>88.95964599999999</v>
       </c>
       <c r="O15">
-        <v>0.990584245483253</v>
+        <v>0.9757678722356318</v>
       </c>
       <c r="P15">
-        <v>0.9929177316168408</v>
+        <v>0.9821074349659524</v>
       </c>
       <c r="Q15">
-        <v>215.6373071341476</v>
+        <v>300.1577037060633</v>
       </c>
       <c r="R15">
-        <v>1293.823842804886</v>
+        <v>1800.94622223638</v>
       </c>
       <c r="S15">
-        <v>0.1267410543618347</v>
+        <v>0.2083904799636019</v>
       </c>
       <c r="T15">
-        <v>0.08846602704093255</v>
+        <v>0.1505468026783086</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.2719705</v>
+        <v>10.122265</v>
       </c>
       <c r="H16">
-        <v>14.543941</v>
+        <v>20.24453</v>
       </c>
       <c r="I16">
-        <v>0.1279457602316344</v>
+        <v>0.2135656295858028</v>
       </c>
       <c r="J16">
-        <v>0.08909703616318426</v>
+        <v>0.153289545846405</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.211054</v>
+        <v>0.04072766666666667</v>
       </c>
       <c r="N16">
-        <v>0.422108</v>
+        <v>0.122183</v>
       </c>
       <c r="O16">
-        <v>0.007050391163187266</v>
+        <v>0.001340183457265176</v>
       </c>
       <c r="P16">
-        <v>0.00471133302236074</v>
+        <v>0.001348890627627329</v>
       </c>
       <c r="Q16">
-        <v>1.534778461907</v>
+        <v>0.4122562348316666</v>
       </c>
       <c r="R16">
-        <v>6.139113847628</v>
+        <v>2.47353740899</v>
       </c>
       <c r="S16">
-        <v>0.0009020676573043917</v>
+        <v>0.0002862171238113153</v>
       </c>
       <c r="T16">
-        <v>0.000419765808670079</v>
+        <v>0.0002067708317054654</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.2719705</v>
+        <v>10.122265</v>
       </c>
       <c r="H17">
-        <v>14.543941</v>
+        <v>20.24453</v>
       </c>
       <c r="I17">
-        <v>0.1279457602316344</v>
+        <v>0.2135656295858028</v>
       </c>
       <c r="J17">
-        <v>0.08909703616318426</v>
+        <v>0.153289545846405</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.04031433333333333</v>
+        <v>0.5885005</v>
       </c>
       <c r="N17">
-        <v>0.120943</v>
+        <v>1.177001</v>
       </c>
       <c r="O17">
-        <v>0.001346725574891351</v>
+        <v>0.01936518095051565</v>
       </c>
       <c r="P17">
-        <v>0.001349898011227873</v>
+        <v>0.01299399767240936</v>
       </c>
       <c r="Q17">
-        <v>0.2931646427271667</v>
+        <v>5.956958013632499</v>
       </c>
       <c r="R17">
-        <v>1.758987856363</v>
+        <v>23.82783205453</v>
       </c>
       <c r="S17">
-        <v>0.0001723078275028587</v>
+        <v>0.004135737061739871</v>
       </c>
       <c r="T17">
-        <v>0.0001202719119229803</v>
+        <v>0.001991844001932875</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,46 +1532,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.6310036666666666</v>
+        <v>0.2830933333333334</v>
       </c>
       <c r="H18">
-        <v>1.893011</v>
+        <v>0.84928</v>
       </c>
       <c r="I18">
-        <v>0.01110211377241086</v>
+        <v>0.005972873261555284</v>
       </c>
       <c r="J18">
-        <v>0.011596696488545</v>
+        <v>0.006430662776386256</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.030493</v>
+        <v>0.107177</v>
       </c>
       <c r="N18">
-        <v>0.09147899999999999</v>
+        <v>0.321531</v>
       </c>
       <c r="O18">
-        <v>0.001018637778668347</v>
+        <v>0.003526763356587491</v>
       </c>
       <c r="P18">
-        <v>0.001021037349570579</v>
+        <v>0.003549676734010809</v>
       </c>
       <c r="Q18">
-        <v>0.01924119480766666</v>
+        <v>0.03034109418666667</v>
       </c>
       <c r="R18">
-        <v>0.173170753269</v>
+        <v>0.27306984768</v>
       </c>
       <c r="S18">
-        <v>1.130903251165186E-05</v>
+        <v>2.106491055239439E-05</v>
       </c>
       <c r="T18">
-        <v>1.184066024643843E-05</v>
+        <v>2.282677404160764E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.6310036666666666</v>
+        <v>0.2830933333333334</v>
       </c>
       <c r="H19">
-        <v>1.893011</v>
+        <v>0.84928</v>
       </c>
       <c r="I19">
-        <v>0.01110211377241086</v>
+        <v>0.005972873261555284</v>
       </c>
       <c r="J19">
-        <v>0.011596696488545</v>
+        <v>0.006430662776386256</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1618,22 +1618,22 @@
         <v>88.95964599999999</v>
       </c>
       <c r="O19">
-        <v>0.990584245483253</v>
+        <v>0.9757678722356318</v>
       </c>
       <c r="P19">
-        <v>0.9929177316168408</v>
+        <v>0.9821074349659524</v>
       </c>
       <c r="Q19">
-        <v>18.71128760378955</v>
+        <v>8.394627572764445</v>
       </c>
       <c r="R19">
-        <v>168.401588434106</v>
+        <v>75.55164815488</v>
       </c>
       <c r="S19">
-        <v>0.01099757899451284</v>
+        <v>0.005828137833560897</v>
       </c>
       <c r="T19">
-        <v>0.01151456557165508</v>
+        <v>0.006315601724447736</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.6310036666666666</v>
+        <v>0.2830933333333334</v>
       </c>
       <c r="H20">
-        <v>1.893011</v>
+        <v>0.84928</v>
       </c>
       <c r="I20">
-        <v>0.01110211377241086</v>
+        <v>0.005972873261555284</v>
       </c>
       <c r="J20">
-        <v>0.011596696488545</v>
+        <v>0.006430662776386256</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.211054</v>
+        <v>0.04072766666666667</v>
       </c>
       <c r="N20">
-        <v>0.422108</v>
+        <v>0.122183</v>
       </c>
       <c r="O20">
-        <v>0.007050391163187266</v>
+        <v>0.001340183457265176</v>
       </c>
       <c r="P20">
-        <v>0.00471133302236074</v>
+        <v>0.001348890627627329</v>
       </c>
       <c r="Q20">
-        <v>0.1331758478646667</v>
+        <v>0.01152973091555556</v>
       </c>
       <c r="R20">
-        <v>0.799055087188</v>
+        <v>0.10376757824</v>
       </c>
       <c r="S20">
-        <v>7.827424483370515E-05</v>
+        <v>8.00474593747789E-06</v>
       </c>
       <c r="T20">
-        <v>5.463589911677688E-05</v>
+        <v>8.674260748499358E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,7 +1709,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.6310036666666666</v>
+        <v>0.2830933333333334</v>
       </c>
       <c r="H21">
-        <v>1.893011</v>
+        <v>0.84928</v>
       </c>
       <c r="I21">
-        <v>0.01110211377241086</v>
+        <v>0.005972873261555284</v>
       </c>
       <c r="J21">
-        <v>0.011596696488545</v>
+        <v>0.006430662776386256</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.04031433333333333</v>
+        <v>0.5885005</v>
       </c>
       <c r="N21">
-        <v>0.120943</v>
+        <v>1.177001</v>
       </c>
       <c r="O21">
-        <v>0.001346725574891351</v>
+        <v>0.01936518095051565</v>
       </c>
       <c r="P21">
-        <v>0.001349898011227873</v>
+        <v>0.01299399767240936</v>
       </c>
       <c r="Q21">
-        <v>0.02543849215255556</v>
+        <v>0.1666005682133334</v>
       </c>
       <c r="R21">
-        <v>0.228946429373</v>
+        <v>0.99960340928</v>
       </c>
       <c r="S21">
-        <v>1.49515005526592E-05</v>
+        <v>0.0001156657715045147</v>
       </c>
       <c r="T21">
-        <v>1.565435752670015E-05</v>
+        <v>8.356001714841255E-05</v>
       </c>
     </row>
   </sheetData>
